--- a/biology/Botanique/Canche_cespiteuse/Canche_cespiteuse.xlsx
+++ b/biology/Botanique/Canche_cespiteuse/Canche_cespiteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deschampsia cespitosa
-La Canche cespiteuse (Deschampsia cespitosa ou Deschampsia caespitosa)[1] est une plante herbacée de la famille des Poaceae[2].
+La Canche cespiteuse (Deschampsia cespitosa ou Deschampsia caespitosa) est une plante herbacée de la famille des Poaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans les lieux humides incultes dans presque toute la France[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les lieux humides incultes dans presque toute la France.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Canche cespiteuse est présente en Eurasie, en Amérique du Nord sauf dans les États américains du sud-est (du Texas au Nebraska jusqu’en Floride)[4] et dans certaines parties d’Amérique du Sud.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Canche cespiteuse est présente en Eurasie, en Amérique du Nord sauf dans les États américains du sud-est (du Texas au Nebraska jusqu’en Floride) et dans certaines parties d’Amérique du Sud.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t xml:space="preserve">Description </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’herbe forme une touffe compacte de coloration verte. On dit ainsi qu’elle est cespiteuse.
 </t>
@@ -605,9 +623,11 @@
           <t>Toxicorésistance, écotoxicologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a montré au début des années 1990 que c'est une des plantes qui peut montrer des capacités de résistance[5] à l'arsenic utilisé par de nombreuses marques commerciales de désherbants notamment pour les parcours de golfs. En concentrant ce poison sans en mourir, une plante qui a accumulé de l'arsenic peut aussi contribuer à contaminer l'environnement (ou être utilisée lors d'opération de phytoremédiation).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a montré au début des années 1990 que c'est une des plantes qui peut montrer des capacités de résistance à l'arsenic utilisé par de nombreuses marques commerciales de désherbants notamment pour les parcours de golfs. En concentrant ce poison sans en mourir, une plante qui a accumulé de l'arsenic peut aussi contribuer à contaminer l'environnement (ou être utilisée lors d'opération de phytoremédiation).
 </t>
         </is>
       </c>
